--- a/05. Models/06.Benchmarking/ClusteringOverview.xlsx
+++ b/05. Models/06.Benchmarking/ClusteringOverview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ealvarezq\Documents\GitHub\Comillas\Models\JointResearch\05. Models\06.Benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729127D7-EB5D-44A9-94C7-33224FBF83F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C80A7A9-798F-4BF7-A8AB-9D50D8FF12D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{7BB2066D-5270-4E6D-ACF3-E76E4257FA3D}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -575,7 +575,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
